--- a/04_SUP/2015/SUP_A28_15_MNMG/MNMG_CODING_TABLE_RNAV.xlsx
+++ b/04_SUP/2015/SUP_A28_15_MNMG/MNMG_CODING_TABLE_RNAV.xlsx
@@ -697,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -809,6 +809,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3393,7 +3396,7 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3623,10 +3626,10 @@
         <v>38</v>
       </c>
       <c r="R4" s="29">
-        <f t="shared" ref="R4:R7" si="0">P4+Q4/60</f>
+        <f t="shared" ref="R4:R6" si="0">P4+Q4/60</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="38">
         <f>O4-R4</f>
         <v>185.86666666666667</v>
       </c>
@@ -3656,7 +3659,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="23" t="str">
-        <f t="shared" ref="G5:G7" si="1">T5</f>
+        <f t="shared" ref="G5:G6" si="1">T5</f>
         <v>276 (276.5)</v>
       </c>
       <c r="H5" s="20" t="s">
@@ -3684,19 +3687,19 @@
         <v>276.5</v>
       </c>
       <c r="P5" s="29" t="str">
-        <f t="shared" ref="P5:P7" si="2">MID(L4,1,1)</f>
+        <f t="shared" ref="P5:P6" si="2">MID(L4,1,1)</f>
         <v>0</v>
       </c>
       <c r="Q5" s="29" t="str">
-        <f t="shared" ref="Q5:Q7" si="3">MID(L4,3,2)</f>
+        <f t="shared" ref="Q5:Q6" si="3">MID(L4,3,2)</f>
         <v>38</v>
       </c>
       <c r="R5" s="29">
         <f t="shared" si="0"/>
         <v>0.6333333333333333</v>
       </c>
-      <c r="S5" s="29">
-        <f t="shared" ref="S5:S7" si="4">O5-R5</f>
+      <c r="S5" s="38">
+        <f t="shared" ref="S5:S6" si="4">O5-R5</f>
         <v>275.86666666666667</v>
       </c>
       <c r="T5" s="29" t="str">
@@ -3764,7 +3767,7 @@
         <f t="shared" si="0"/>
         <v>0.6333333333333333</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6" s="38">
         <f t="shared" si="4"/>
         <v>275.86666666666667</v>
       </c>
@@ -4034,10 +4037,10 @@
         <v>38</v>
       </c>
       <c r="R12" s="29">
-        <f t="shared" ref="R12:R15" si="6">P12+Q12/60</f>
+        <f t="shared" ref="R12:R14" si="6">P12+Q12/60</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="38">
         <f>O12-R12</f>
         <v>5.8666666666666671</v>
       </c>
@@ -4067,7 +4070,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="23" t="str">
-        <f t="shared" ref="G13:G15" si="7">T13</f>
+        <f t="shared" ref="G13:G14" si="7">T13</f>
         <v>276 (276.5)</v>
       </c>
       <c r="H13" s="20" t="s">
@@ -4095,19 +4098,19 @@
         <v>276.5</v>
       </c>
       <c r="P13" s="29" t="str">
-        <f t="shared" ref="P13:P15" si="8">MID(L12,1,1)</f>
+        <f t="shared" ref="P13:P14" si="8">MID(L12,1,1)</f>
         <v>0</v>
       </c>
       <c r="Q13" s="29" t="str">
-        <f t="shared" ref="Q13:Q15" si="9">MID(L12,3,2)</f>
+        <f t="shared" ref="Q13:Q14" si="9">MID(L12,3,2)</f>
         <v>38</v>
       </c>
       <c r="R13" s="29">
         <f t="shared" si="6"/>
         <v>0.6333333333333333</v>
       </c>
-      <c r="S13" s="29">
-        <f t="shared" ref="S13:S15" si="10">O13-R13</f>
+      <c r="S13" s="38">
+        <f t="shared" ref="S13:S14" si="10">O13-R13</f>
         <v>275.86666666666667</v>
       </c>
       <c r="T13" s="29" t="str">
@@ -4175,7 +4178,7 @@
         <f t="shared" si="6"/>
         <v>0.6333333333333333</v>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="38">
         <f t="shared" si="10"/>
         <v>275.86666666666667</v>
       </c>
@@ -4444,10 +4447,10 @@
         <v>38</v>
       </c>
       <c r="R20" s="29">
-        <f t="shared" ref="R20:R23" si="12">P20+Q20/60</f>
+        <f t="shared" ref="R20:R22" si="12">P20+Q20/60</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="S20" s="29">
+      <c r="S20" s="38">
         <f>O20-R20</f>
         <v>275.86666666666667</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="23" t="str">
-        <f t="shared" ref="G21:G23" si="13">T21</f>
+        <f t="shared" ref="G21:G22" si="13">T21</f>
         <v>276 (276.5)</v>
       </c>
       <c r="H21" s="20" t="s">
@@ -4505,19 +4508,19 @@
         <v>276.5</v>
       </c>
       <c r="P21" s="29" t="str">
-        <f t="shared" ref="P21:P23" si="14">MID(L20,1,1)</f>
+        <f t="shared" ref="P21:P22" si="14">MID(L20,1,1)</f>
         <v>0</v>
       </c>
       <c r="Q21" s="29" t="str">
-        <f t="shared" ref="Q21:Q23" si="15">MID(L20,3,2)</f>
+        <f t="shared" ref="Q21:Q22" si="15">MID(L20,3,2)</f>
         <v>38</v>
       </c>
       <c r="R21" s="29">
         <f t="shared" si="12"/>
         <v>0.6333333333333333</v>
       </c>
-      <c r="S21" s="29">
-        <f t="shared" ref="S21:S23" si="16">O21-R21</f>
+      <c r="S21" s="38">
+        <f t="shared" ref="S21:S22" si="16">O21-R21</f>
         <v>275.86666666666667</v>
       </c>
       <c r="T21" s="29" t="str">
@@ -4585,7 +4588,7 @@
         <f t="shared" si="12"/>
         <v>0.6333333333333333</v>
       </c>
-      <c r="S22" s="29">
+      <c r="S22" s="38">
         <f t="shared" si="16"/>
         <v>275.86666666666667</v>
       </c>
@@ -4661,9 +4664,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4781,19 +4787,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9AAF2A9-D626-49E5-94D2-4F57CB9584B1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C70426-12C4-4FF4-9C49-C674202D216B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4815,9 +4817,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C70426-12C4-4FF4-9C49-C674202D216B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9AAF2A9-D626-49E5-94D2-4F57CB9584B1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>